--- a/Template Paramètres Modèle V3.0.xlsx
+++ b/Template Paramètres Modèle V3.0.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjy7TpNTbUhJHZNyLDGCCGjsj1QFQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjWchaJ2FV3lx4ykR32nOH1NgO0xA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Template v3.0</t>
   </si>
@@ -152,31 +152,7 @@
     <t>Pas d'unité</t>
   </si>
   <si>
-    <t>en médecine</t>
-  </si>
-  <si>
     <t>en réa/soins intensifs</t>
-  </si>
-  <si>
-    <t>Remarque</t>
-  </si>
-  <si>
-    <t>La somme  totale</t>
-  </si>
-  <si>
-    <t>(en médecine + en réa/soins intesifs)</t>
-  </si>
-  <si>
-    <t>sur chaque ligne</t>
-  </si>
-  <si>
-    <t>doit être</t>
-  </si>
-  <si>
-    <t>inférieur ou égale</t>
-  </si>
-  <si>
-    <t>à 100</t>
   </si>
 </sst>
 </file>
@@ -186,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,16 +228,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -319,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
     <border>
       <left/>
@@ -385,22 +351,11 @@
         <color rgb="FFD9D9D9"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -486,24 +441,6 @@
     <xf borderId="3" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -535,7 +472,7 @@
     <xdr:ext cx="5286375" cy="3038475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -563,7 +500,7 @@
     <xdr:ext cx="5734050" cy="2971800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -36626,12 +36563,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.25"/>
-    <col customWidth="1" min="2" max="2" width="17.38"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
-    <col customWidth="1" min="4" max="4" width="16.75"/>
-    <col customWidth="1" min="5" max="5" width="29.0"/>
-    <col customWidth="1" min="6" max="24" width="11.5"/>
+    <col customWidth="1" min="1" max="2" width="17.25"/>
+    <col customWidth="1" min="3" max="3" width="16.75"/>
+    <col customWidth="1" min="4" max="22" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -36641,15 +36575,11 @@
       <c r="B1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -36667,23 +36597,19 @@
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="31">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
-      <c r="C2" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -36701,25 +36627,19 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="20">
         <v>44809.0</v>
       </c>
       <c r="B3" s="31">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
-      <c r="C3" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -36737,25 +36657,19 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29">
-        <v>1.0</v>
+      <c r="B4" s="31">
+        <v>50.0</v>
       </c>
-      <c r="C4" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>47</v>
-      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -36773,25 +36687,19 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="31">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
-      <c r="C5" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>48</v>
-      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -36809,25 +36717,19 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
-      <c r="C6" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>49</v>
-      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -36845,25 +36747,19 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="31">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
-      <c r="C7" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>50</v>
-      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -36881,25 +36777,19 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="31">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
-      <c r="C8" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>51</v>
-      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -36917,15 +36807,13 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="42"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -36943,15 +36831,13 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="42"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -36969,15 +36855,13 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -36995,15 +36879,13 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="42"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -37021,15 +36903,13 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="42"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -37047,15 +36927,13 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -37073,15 +36951,13 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -37099,15 +36975,13 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -37125,15 +36999,13 @@
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="42"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -37151,15 +37023,13 @@
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -37177,15 +37047,13 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -37203,15 +37071,13 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -37229,15 +37095,13 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -37255,15 +37119,13 @@
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -37281,15 +37143,13 @@
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -37307,15 +37167,13 @@
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -37333,15 +37191,13 @@
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="42"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -37359,15 +37215,13 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="42"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -37385,15 +37239,13 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -37411,15 +37263,13 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="42"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -37437,15 +37287,13 @@
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="42"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -37463,15 +37311,13 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="42"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -37489,15 +37335,13 @@
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="42"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -37515,15 +37359,13 @@
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="42"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -37541,15 +37383,13 @@
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="42"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -37567,15 +37407,13 @@
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="42"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -37593,15 +37431,13 @@
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="42"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -37619,15 +37455,13 @@
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -37645,15 +37479,13 @@
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="42"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -37671,15 +37503,13 @@
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="42"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -37697,15 +37527,13 @@
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -37723,15 +37551,13 @@
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="42"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -37749,15 +37575,13 @@
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="42"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -37775,15 +37599,13 @@
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="42"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -37801,15 +37623,13 @@
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="42"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -37827,15 +37647,13 @@
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="42"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -37853,15 +37671,13 @@
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
       <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="42"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -37879,15 +37695,13 @@
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
       <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="42"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -37905,15 +37719,13 @@
       <c r="T46" s="18"/>
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="42"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -37931,15 +37743,13 @@
       <c r="T47" s="18"/>
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="42"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -37957,15 +37767,13 @@
       <c r="T48" s="18"/>
       <c r="U48" s="18"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="42"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -37983,15 +37791,13 @@
       <c r="T49" s="18"/>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="42"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -38009,15 +37815,13 @@
       <c r="T50" s="18"/>
       <c r="U50" s="18"/>
       <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="42"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -38035,15 +37839,13 @@
       <c r="T51" s="18"/>
       <c r="U51" s="18"/>
       <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="42"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -38061,15 +37863,13 @@
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="42"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -38087,15 +37887,13 @@
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -38113,15 +37911,13 @@
       <c r="T54" s="18"/>
       <c r="U54" s="18"/>
       <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="42"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -38139,15 +37935,13 @@
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -38165,15 +37959,13 @@
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="42"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -38191,15 +37983,13 @@
       <c r="T57" s="18"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="42"/>
+      <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -38217,15 +38007,13 @@
       <c r="T58" s="18"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="42"/>
+      <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -38243,15 +38031,13 @@
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
       <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="42"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -38269,15 +38055,13 @@
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
       <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
-      <c r="E61" s="42"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
@@ -38295,15 +38079,13 @@
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
       <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="42"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -38321,15 +38103,13 @@
       <c r="T62" s="18"/>
       <c r="U62" s="18"/>
       <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="42"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -38347,15 +38127,13 @@
       <c r="T63" s="18"/>
       <c r="U63" s="18"/>
       <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="42"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -38373,15 +38151,13 @@
       <c r="T64" s="18"/>
       <c r="U64" s="18"/>
       <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="42"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -38399,15 +38175,13 @@
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
       <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
-      <c r="E66" s="42"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -38425,15 +38199,13 @@
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
       <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="E67" s="42"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -38451,15 +38223,13 @@
       <c r="T67" s="18"/>
       <c r="U67" s="18"/>
       <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
-      <c r="E68" s="42"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -38477,15 +38247,13 @@
       <c r="T68" s="18"/>
       <c r="U68" s="18"/>
       <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="42"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -38503,15 +38271,13 @@
       <c r="T69" s="18"/>
       <c r="U69" s="18"/>
       <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="42"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -38529,15 +38295,13 @@
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="42"/>
+      <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -38555,15 +38319,13 @@
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="42"/>
+      <c r="E72" s="18"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -38581,15 +38343,13 @@
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
       <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="42"/>
+      <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -38607,15 +38367,13 @@
       <c r="T73" s="18"/>
       <c r="U73" s="18"/>
       <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="42"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -38633,15 +38391,13 @@
       <c r="T74" s="18"/>
       <c r="U74" s="18"/>
       <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="42"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -38659,15 +38415,13 @@
       <c r="T75" s="18"/>
       <c r="U75" s="18"/>
       <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="42"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -38685,15 +38439,13 @@
       <c r="T76" s="18"/>
       <c r="U76" s="18"/>
       <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
-      <c r="E77" s="42"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -38711,15 +38463,13 @@
       <c r="T77" s="18"/>
       <c r="U77" s="18"/>
       <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
-      <c r="E78" s="42"/>
+      <c r="E78" s="18"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -38737,15 +38487,13 @@
       <c r="T78" s="18"/>
       <c r="U78" s="18"/>
       <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
-      <c r="E79" s="42"/>
+      <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -38763,15 +38511,13 @@
       <c r="T79" s="18"/>
       <c r="U79" s="18"/>
       <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
-      <c r="E80" s="42"/>
+      <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -38789,15 +38535,13 @@
       <c r="T80" s="18"/>
       <c r="U80" s="18"/>
       <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="42"/>
+      <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -38815,15 +38559,13 @@
       <c r="T81" s="18"/>
       <c r="U81" s="18"/>
       <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="42"/>
+      <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -38841,15 +38583,13 @@
       <c r="T82" s="18"/>
       <c r="U82" s="18"/>
       <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="42"/>
+      <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -38867,15 +38607,13 @@
       <c r="T83" s="18"/>
       <c r="U83" s="18"/>
       <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="42"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -38893,15 +38631,13 @@
       <c r="T84" s="18"/>
       <c r="U84" s="18"/>
       <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="42"/>
+      <c r="E85" s="18"/>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -38919,15 +38655,13 @@
       <c r="T85" s="18"/>
       <c r="U85" s="18"/>
       <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="42"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
@@ -38945,15 +38679,13 @@
       <c r="T86" s="18"/>
       <c r="U86" s="18"/>
       <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="42"/>
+      <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
@@ -38971,15 +38703,13 @@
       <c r="T87" s="18"/>
       <c r="U87" s="18"/>
       <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="42"/>
+      <c r="E88" s="18"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
@@ -38997,15 +38727,13 @@
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
       <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="42"/>
+      <c r="E89" s="18"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
@@ -39023,15 +38751,13 @@
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
       <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="42"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
@@ -39049,15 +38775,13 @@
       <c r="T90" s="18"/>
       <c r="U90" s="18"/>
       <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="42"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
@@ -39075,15 +38799,13 @@
       <c r="T91" s="18"/>
       <c r="U91" s="18"/>
       <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
-      <c r="E92" s="42"/>
+      <c r="E92" s="18"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
@@ -39101,15 +38823,13 @@
       <c r="T92" s="18"/>
       <c r="U92" s="18"/>
       <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
-      <c r="E93" s="42"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
@@ -39127,15 +38847,13 @@
       <c r="T93" s="18"/>
       <c r="U93" s="18"/>
       <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
-      <c r="E94" s="42"/>
+      <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -39153,15 +38871,13 @@
       <c r="T94" s="18"/>
       <c r="U94" s="18"/>
       <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="42"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -39179,15 +38895,13 @@
       <c r="T95" s="18"/>
       <c r="U95" s="18"/>
       <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="42"/>
+      <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -39205,15 +38919,13 @@
       <c r="T96" s="18"/>
       <c r="U96" s="18"/>
       <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
-      <c r="E97" s="42"/>
+      <c r="E97" s="18"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -39231,15 +38943,13 @@
       <c r="T97" s="18"/>
       <c r="U97" s="18"/>
       <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
-      <c r="E98" s="42"/>
+      <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -39257,15 +38967,13 @@
       <c r="T98" s="18"/>
       <c r="U98" s="18"/>
       <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="42"/>
+      <c r="E99" s="18"/>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
@@ -39283,15 +38991,13 @@
       <c r="T99" s="18"/>
       <c r="U99" s="18"/>
       <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="42"/>
+      <c r="E100" s="18"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
@@ -39309,15 +39015,13 @@
       <c r="T100" s="18"/>
       <c r="U100" s="18"/>
       <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="42"/>
+      <c r="E101" s="18"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
@@ -39335,15 +39039,13 @@
       <c r="T101" s="18"/>
       <c r="U101" s="18"/>
       <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="18"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="42"/>
+      <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
@@ -39361,15 +39063,13 @@
       <c r="T102" s="18"/>
       <c r="U102" s="18"/>
       <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
-      <c r="E103" s="42"/>
+      <c r="E103" s="18"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
@@ -39387,15 +39087,13 @@
       <c r="T103" s="18"/>
       <c r="U103" s="18"/>
       <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
-      <c r="E104" s="42"/>
+      <c r="E104" s="18"/>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
@@ -39413,15 +39111,13 @@
       <c r="T104" s="18"/>
       <c r="U104" s="18"/>
       <c r="V104" s="18"/>
-      <c r="W104" s="18"/>
-      <c r="X104" s="18"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
-      <c r="E105" s="42"/>
+      <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
       <c r="H105" s="18"/>
@@ -39439,15 +39135,13 @@
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
       <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="18"/>
-      <c r="E106" s="42"/>
+      <c r="E106" s="18"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
@@ -39465,15 +39159,13 @@
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
       <c r="V106" s="18"/>
-      <c r="W106" s="18"/>
-      <c r="X106" s="18"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
-      <c r="E107" s="42"/>
+      <c r="E107" s="18"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
@@ -39491,15 +39183,13 @@
       <c r="T107" s="18"/>
       <c r="U107" s="18"/>
       <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
-      <c r="E108" s="42"/>
+      <c r="E108" s="18"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
@@ -39517,15 +39207,13 @@
       <c r="T108" s="18"/>
       <c r="U108" s="18"/>
       <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
-      <c r="E109" s="42"/>
+      <c r="E109" s="18"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
@@ -39543,15 +39231,13 @@
       <c r="T109" s="18"/>
       <c r="U109" s="18"/>
       <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
-      <c r="E110" s="42"/>
+      <c r="E110" s="18"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="18"/>
@@ -39569,15 +39255,13 @@
       <c r="T110" s="18"/>
       <c r="U110" s="18"/>
       <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
-      <c r="X110" s="18"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
-      <c r="E111" s="42"/>
+      <c r="E111" s="18"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
@@ -39595,15 +39279,13 @@
       <c r="T111" s="18"/>
       <c r="U111" s="18"/>
       <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
-      <c r="E112" s="42"/>
+      <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
@@ -39621,15 +39303,13 @@
       <c r="T112" s="18"/>
       <c r="U112" s="18"/>
       <c r="V112" s="18"/>
-      <c r="W112" s="18"/>
-      <c r="X112" s="18"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
-      <c r="E113" s="42"/>
+      <c r="E113" s="18"/>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
@@ -39647,15 +39327,13 @@
       <c r="T113" s="18"/>
       <c r="U113" s="18"/>
       <c r="V113" s="18"/>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
-      <c r="E114" s="42"/>
+      <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -39673,15 +39351,13 @@
       <c r="T114" s="18"/>
       <c r="U114" s="18"/>
       <c r="V114" s="18"/>
-      <c r="W114" s="18"/>
-      <c r="X114" s="18"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
-      <c r="E115" s="42"/>
+      <c r="E115" s="18"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
@@ -39699,15 +39375,13 @@
       <c r="T115" s="18"/>
       <c r="U115" s="18"/>
       <c r="V115" s="18"/>
-      <c r="W115" s="18"/>
-      <c r="X115" s="18"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
-      <c r="E116" s="42"/>
+      <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -39725,15 +39399,13 @@
       <c r="T116" s="18"/>
       <c r="U116" s="18"/>
       <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
-      <c r="E117" s="42"/>
+      <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
@@ -39751,15 +39423,13 @@
       <c r="T117" s="18"/>
       <c r="U117" s="18"/>
       <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
-      <c r="E118" s="42"/>
+      <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
@@ -39777,15 +39447,13 @@
       <c r="T118" s="18"/>
       <c r="U118" s="18"/>
       <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
-      <c r="E119" s="42"/>
+      <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
@@ -39803,15 +39471,13 @@
       <c r="T119" s="18"/>
       <c r="U119" s="18"/>
       <c r="V119" s="18"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
-      <c r="E120" s="42"/>
+      <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
@@ -39829,15 +39495,13 @@
       <c r="T120" s="18"/>
       <c r="U120" s="18"/>
       <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
-      <c r="E121" s="42"/>
+      <c r="E121" s="18"/>
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
       <c r="H121" s="18"/>
@@ -39855,15 +39519,13 @@
       <c r="T121" s="18"/>
       <c r="U121" s="18"/>
       <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
-      <c r="E122" s="42"/>
+      <c r="E122" s="18"/>
       <c r="F122" s="18"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
@@ -39881,15 +39543,13 @@
       <c r="T122" s="18"/>
       <c r="U122" s="18"/>
       <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
-      <c r="E123" s="42"/>
+      <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
@@ -39907,15 +39567,13 @@
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
       <c r="V123" s="18"/>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
-      <c r="E124" s="42"/>
+      <c r="E124" s="18"/>
       <c r="F124" s="18"/>
       <c r="G124" s="18"/>
       <c r="H124" s="18"/>
@@ -39933,15 +39591,13 @@
       <c r="T124" s="18"/>
       <c r="U124" s="18"/>
       <c r="V124" s="18"/>
-      <c r="W124" s="18"/>
-      <c r="X124" s="18"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
-      <c r="E125" s="42"/>
+      <c r="E125" s="18"/>
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
       <c r="H125" s="18"/>
@@ -39959,15 +39615,13 @@
       <c r="T125" s="18"/>
       <c r="U125" s="18"/>
       <c r="V125" s="18"/>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
-      <c r="E126" s="42"/>
+      <c r="E126" s="18"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
       <c r="H126" s="18"/>
@@ -39985,15 +39639,13 @@
       <c r="T126" s="18"/>
       <c r="U126" s="18"/>
       <c r="V126" s="18"/>
-      <c r="W126" s="18"/>
-      <c r="X126" s="18"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
-      <c r="E127" s="42"/>
+      <c r="E127" s="18"/>
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
       <c r="H127" s="18"/>
@@ -40011,15 +39663,13 @@
       <c r="T127" s="18"/>
       <c r="U127" s="18"/>
       <c r="V127" s="18"/>
-      <c r="W127" s="18"/>
-      <c r="X127" s="18"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
-      <c r="E128" s="42"/>
+      <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
       <c r="H128" s="18"/>
@@ -40037,15 +39687,13 @@
       <c r="T128" s="18"/>
       <c r="U128" s="18"/>
       <c r="V128" s="18"/>
-      <c r="W128" s="18"/>
-      <c r="X128" s="18"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
-      <c r="E129" s="42"/>
+      <c r="E129" s="18"/>
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
@@ -40063,15 +39711,13 @@
       <c r="T129" s="18"/>
       <c r="U129" s="18"/>
       <c r="V129" s="18"/>
-      <c r="W129" s="18"/>
-      <c r="X129" s="18"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
-      <c r="E130" s="42"/>
+      <c r="E130" s="18"/>
       <c r="F130" s="18"/>
       <c r="G130" s="18"/>
       <c r="H130" s="18"/>
@@ -40089,15 +39735,13 @@
       <c r="T130" s="18"/>
       <c r="U130" s="18"/>
       <c r="V130" s="18"/>
-      <c r="W130" s="18"/>
-      <c r="X130" s="18"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
-      <c r="E131" s="42"/>
+      <c r="E131" s="18"/>
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
@@ -40115,15 +39759,13 @@
       <c r="T131" s="18"/>
       <c r="U131" s="18"/>
       <c r="V131" s="18"/>
-      <c r="W131" s="18"/>
-      <c r="X131" s="18"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
-      <c r="E132" s="42"/>
+      <c r="E132" s="18"/>
       <c r="F132" s="18"/>
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
@@ -40141,15 +39783,13 @@
       <c r="T132" s="18"/>
       <c r="U132" s="18"/>
       <c r="V132" s="18"/>
-      <c r="W132" s="18"/>
-      <c r="X132" s="18"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
-      <c r="E133" s="42"/>
+      <c r="E133" s="18"/>
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
@@ -40167,15 +39807,13 @@
       <c r="T133" s="18"/>
       <c r="U133" s="18"/>
       <c r="V133" s="18"/>
-      <c r="W133" s="18"/>
-      <c r="X133" s="18"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
-      <c r="E134" s="42"/>
+      <c r="E134" s="18"/>
       <c r="F134" s="18"/>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
@@ -40193,15 +39831,13 @@
       <c r="T134" s="18"/>
       <c r="U134" s="18"/>
       <c r="V134" s="18"/>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
-      <c r="E135" s="42"/>
+      <c r="E135" s="18"/>
       <c r="F135" s="18"/>
       <c r="G135" s="18"/>
       <c r="H135" s="18"/>
@@ -40219,15 +39855,13 @@
       <c r="T135" s="18"/>
       <c r="U135" s="18"/>
       <c r="V135" s="18"/>
-      <c r="W135" s="18"/>
-      <c r="X135" s="18"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
-      <c r="E136" s="42"/>
+      <c r="E136" s="18"/>
       <c r="F136" s="18"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
@@ -40245,15 +39879,13 @@
       <c r="T136" s="18"/>
       <c r="U136" s="18"/>
       <c r="V136" s="18"/>
-      <c r="W136" s="18"/>
-      <c r="X136" s="18"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
-      <c r="E137" s="42"/>
+      <c r="E137" s="18"/>
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
@@ -40271,15 +39903,13 @@
       <c r="T137" s="18"/>
       <c r="U137" s="18"/>
       <c r="V137" s="18"/>
-      <c r="W137" s="18"/>
-      <c r="X137" s="18"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
-      <c r="E138" s="42"/>
+      <c r="E138" s="18"/>
       <c r="F138" s="18"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
@@ -40297,15 +39927,13 @@
       <c r="T138" s="18"/>
       <c r="U138" s="18"/>
       <c r="V138" s="18"/>
-      <c r="W138" s="18"/>
-      <c r="X138" s="18"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
-      <c r="E139" s="42"/>
+      <c r="E139" s="18"/>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
@@ -40323,15 +39951,13 @@
       <c r="T139" s="18"/>
       <c r="U139" s="18"/>
       <c r="V139" s="18"/>
-      <c r="W139" s="18"/>
-      <c r="X139" s="18"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
-      <c r="E140" s="42"/>
+      <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
@@ -40349,15 +39975,13 @@
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
       <c r="V140" s="18"/>
-      <c r="W140" s="18"/>
-      <c r="X140" s="18"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
-      <c r="E141" s="42"/>
+      <c r="E141" s="18"/>
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
       <c r="H141" s="18"/>
@@ -40375,15 +39999,13 @@
       <c r="T141" s="18"/>
       <c r="U141" s="18"/>
       <c r="V141" s="18"/>
-      <c r="W141" s="18"/>
-      <c r="X141" s="18"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="18"/>
-      <c r="E142" s="42"/>
+      <c r="E142" s="18"/>
       <c r="F142" s="18"/>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
@@ -40401,15 +40023,13 @@
       <c r="T142" s="18"/>
       <c r="U142" s="18"/>
       <c r="V142" s="18"/>
-      <c r="W142" s="18"/>
-      <c r="X142" s="18"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
-      <c r="E143" s="42"/>
+      <c r="E143" s="18"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
@@ -40427,15 +40047,13 @@
       <c r="T143" s="18"/>
       <c r="U143" s="18"/>
       <c r="V143" s="18"/>
-      <c r="W143" s="18"/>
-      <c r="X143" s="18"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="18"/>
-      <c r="E144" s="42"/>
+      <c r="E144" s="18"/>
       <c r="F144" s="18"/>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
@@ -40453,15 +40071,13 @@
       <c r="T144" s="18"/>
       <c r="U144" s="18"/>
       <c r="V144" s="18"/>
-      <c r="W144" s="18"/>
-      <c r="X144" s="18"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
-      <c r="E145" s="42"/>
+      <c r="E145" s="18"/>
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
@@ -40479,15 +40095,13 @@
       <c r="T145" s="18"/>
       <c r="U145" s="18"/>
       <c r="V145" s="18"/>
-      <c r="W145" s="18"/>
-      <c r="X145" s="18"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
-      <c r="E146" s="42"/>
+      <c r="E146" s="18"/>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
@@ -40505,15 +40119,13 @@
       <c r="T146" s="18"/>
       <c r="U146" s="18"/>
       <c r="V146" s="18"/>
-      <c r="W146" s="18"/>
-      <c r="X146" s="18"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
-      <c r="E147" s="42"/>
+      <c r="E147" s="18"/>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
@@ -40531,15 +40143,13 @@
       <c r="T147" s="18"/>
       <c r="U147" s="18"/>
       <c r="V147" s="18"/>
-      <c r="W147" s="18"/>
-      <c r="X147" s="18"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
-      <c r="E148" s="42"/>
+      <c r="E148" s="18"/>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
@@ -40557,15 +40167,13 @@
       <c r="T148" s="18"/>
       <c r="U148" s="18"/>
       <c r="V148" s="18"/>
-      <c r="W148" s="18"/>
-      <c r="X148" s="18"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
-      <c r="E149" s="42"/>
+      <c r="E149" s="18"/>
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
       <c r="H149" s="18"/>
@@ -40583,15 +40191,13 @@
       <c r="T149" s="18"/>
       <c r="U149" s="18"/>
       <c r="V149" s="18"/>
-      <c r="W149" s="18"/>
-      <c r="X149" s="18"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
-      <c r="E150" s="42"/>
+      <c r="E150" s="18"/>
       <c r="F150" s="18"/>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
@@ -40609,15 +40215,13 @@
       <c r="T150" s="18"/>
       <c r="U150" s="18"/>
       <c r="V150" s="18"/>
-      <c r="W150" s="18"/>
-      <c r="X150" s="18"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
-      <c r="E151" s="42"/>
+      <c r="E151" s="18"/>
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
@@ -40635,15 +40239,13 @@
       <c r="T151" s="18"/>
       <c r="U151" s="18"/>
       <c r="V151" s="18"/>
-      <c r="W151" s="18"/>
-      <c r="X151" s="18"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
-      <c r="E152" s="42"/>
+      <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
@@ -40661,15 +40263,13 @@
       <c r="T152" s="18"/>
       <c r="U152" s="18"/>
       <c r="V152" s="18"/>
-      <c r="W152" s="18"/>
-      <c r="X152" s="18"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
-      <c r="E153" s="42"/>
+      <c r="E153" s="18"/>
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
@@ -40687,15 +40287,13 @@
       <c r="T153" s="18"/>
       <c r="U153" s="18"/>
       <c r="V153" s="18"/>
-      <c r="W153" s="18"/>
-      <c r="X153" s="18"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
-      <c r="E154" s="42"/>
+      <c r="E154" s="18"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
@@ -40713,15 +40311,13 @@
       <c r="T154" s="18"/>
       <c r="U154" s="18"/>
       <c r="V154" s="18"/>
-      <c r="W154" s="18"/>
-      <c r="X154" s="18"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
-      <c r="E155" s="42"/>
+      <c r="E155" s="18"/>
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
@@ -40739,15 +40335,13 @@
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
       <c r="V155" s="18"/>
-      <c r="W155" s="18"/>
-      <c r="X155" s="18"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
-      <c r="E156" s="42"/>
+      <c r="E156" s="18"/>
       <c r="F156" s="18"/>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
@@ -40765,15 +40359,13 @@
       <c r="T156" s="18"/>
       <c r="U156" s="18"/>
       <c r="V156" s="18"/>
-      <c r="W156" s="18"/>
-      <c r="X156" s="18"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
-      <c r="E157" s="42"/>
+      <c r="E157" s="18"/>
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
@@ -40791,15 +40383,13 @@
       <c r="T157" s="18"/>
       <c r="U157" s="18"/>
       <c r="V157" s="18"/>
-      <c r="W157" s="18"/>
-      <c r="X157" s="18"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
-      <c r="E158" s="42"/>
+      <c r="E158" s="18"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
@@ -40817,15 +40407,13 @@
       <c r="T158" s="18"/>
       <c r="U158" s="18"/>
       <c r="V158" s="18"/>
-      <c r="W158" s="18"/>
-      <c r="X158" s="18"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
-      <c r="E159" s="42"/>
+      <c r="E159" s="18"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
@@ -40843,15 +40431,13 @@
       <c r="T159" s="18"/>
       <c r="U159" s="18"/>
       <c r="V159" s="18"/>
-      <c r="W159" s="18"/>
-      <c r="X159" s="18"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
-      <c r="E160" s="42"/>
+      <c r="E160" s="18"/>
       <c r="F160" s="18"/>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
@@ -40869,15 +40455,13 @@
       <c r="T160" s="18"/>
       <c r="U160" s="18"/>
       <c r="V160" s="18"/>
-      <c r="W160" s="18"/>
-      <c r="X160" s="18"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
-      <c r="E161" s="42"/>
+      <c r="E161" s="18"/>
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
@@ -40895,15 +40479,13 @@
       <c r="T161" s="18"/>
       <c r="U161" s="18"/>
       <c r="V161" s="18"/>
-      <c r="W161" s="18"/>
-      <c r="X161" s="18"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
-      <c r="E162" s="42"/>
+      <c r="E162" s="18"/>
       <c r="F162" s="18"/>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
@@ -40921,15 +40503,13 @@
       <c r="T162" s="18"/>
       <c r="U162" s="18"/>
       <c r="V162" s="18"/>
-      <c r="W162" s="18"/>
-      <c r="X162" s="18"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
-      <c r="E163" s="42"/>
+      <c r="E163" s="18"/>
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
@@ -40947,15 +40527,13 @@
       <c r="T163" s="18"/>
       <c r="U163" s="18"/>
       <c r="V163" s="18"/>
-      <c r="W163" s="18"/>
-      <c r="X163" s="18"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
-      <c r="E164" s="42"/>
+      <c r="E164" s="18"/>
       <c r="F164" s="18"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
@@ -40973,15 +40551,13 @@
       <c r="T164" s="18"/>
       <c r="U164" s="18"/>
       <c r="V164" s="18"/>
-      <c r="W164" s="18"/>
-      <c r="X164" s="18"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
-      <c r="E165" s="42"/>
+      <c r="E165" s="18"/>
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
@@ -40999,15 +40575,13 @@
       <c r="T165" s="18"/>
       <c r="U165" s="18"/>
       <c r="V165" s="18"/>
-      <c r="W165" s="18"/>
-      <c r="X165" s="18"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
-      <c r="E166" s="42"/>
+      <c r="E166" s="18"/>
       <c r="F166" s="18"/>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
@@ -41025,15 +40599,13 @@
       <c r="T166" s="18"/>
       <c r="U166" s="18"/>
       <c r="V166" s="18"/>
-      <c r="W166" s="18"/>
-      <c r="X166" s="18"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
-      <c r="E167" s="42"/>
+      <c r="E167" s="18"/>
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
@@ -41051,15 +40623,13 @@
       <c r="T167" s="18"/>
       <c r="U167" s="18"/>
       <c r="V167" s="18"/>
-      <c r="W167" s="18"/>
-      <c r="X167" s="18"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
-      <c r="E168" s="42"/>
+      <c r="E168" s="18"/>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
@@ -41077,15 +40647,13 @@
       <c r="T168" s="18"/>
       <c r="U168" s="18"/>
       <c r="V168" s="18"/>
-      <c r="W168" s="18"/>
-      <c r="X168" s="18"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
-      <c r="E169" s="42"/>
+      <c r="E169" s="18"/>
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
@@ -41103,15 +40671,13 @@
       <c r="T169" s="18"/>
       <c r="U169" s="18"/>
       <c r="V169" s="18"/>
-      <c r="W169" s="18"/>
-      <c r="X169" s="18"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
-      <c r="E170" s="42"/>
+      <c r="E170" s="18"/>
       <c r="F170" s="18"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
@@ -41129,15 +40695,13 @@
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
       <c r="V170" s="18"/>
-      <c r="W170" s="18"/>
-      <c r="X170" s="18"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
-      <c r="E171" s="42"/>
+      <c r="E171" s="18"/>
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
@@ -41155,15 +40719,13 @@
       <c r="T171" s="18"/>
       <c r="U171" s="18"/>
       <c r="V171" s="18"/>
-      <c r="W171" s="18"/>
-      <c r="X171" s="18"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
-      <c r="E172" s="42"/>
+      <c r="E172" s="18"/>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
@@ -41181,15 +40743,13 @@
       <c r="T172" s="18"/>
       <c r="U172" s="18"/>
       <c r="V172" s="18"/>
-      <c r="W172" s="18"/>
-      <c r="X172" s="18"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
-      <c r="E173" s="42"/>
+      <c r="E173" s="18"/>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
@@ -41207,15 +40767,13 @@
       <c r="T173" s="18"/>
       <c r="U173" s="18"/>
       <c r="V173" s="18"/>
-      <c r="W173" s="18"/>
-      <c r="X173" s="18"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
-      <c r="E174" s="42"/>
+      <c r="E174" s="18"/>
       <c r="F174" s="18"/>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
@@ -41233,15 +40791,13 @@
       <c r="T174" s="18"/>
       <c r="U174" s="18"/>
       <c r="V174" s="18"/>
-      <c r="W174" s="18"/>
-      <c r="X174" s="18"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
-      <c r="E175" s="42"/>
+      <c r="E175" s="18"/>
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
@@ -41259,15 +40815,13 @@
       <c r="T175" s="18"/>
       <c r="U175" s="18"/>
       <c r="V175" s="18"/>
-      <c r="W175" s="18"/>
-      <c r="X175" s="18"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
-      <c r="E176" s="42"/>
+      <c r="E176" s="18"/>
       <c r="F176" s="18"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
@@ -41285,15 +40839,13 @@
       <c r="T176" s="18"/>
       <c r="U176" s="18"/>
       <c r="V176" s="18"/>
-      <c r="W176" s="18"/>
-      <c r="X176" s="18"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
-      <c r="E177" s="42"/>
+      <c r="E177" s="18"/>
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
@@ -41311,15 +40863,13 @@
       <c r="T177" s="18"/>
       <c r="U177" s="18"/>
       <c r="V177" s="18"/>
-      <c r="W177" s="18"/>
-      <c r="X177" s="18"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
-      <c r="E178" s="42"/>
+      <c r="E178" s="18"/>
       <c r="F178" s="18"/>
       <c r="G178" s="18"/>
       <c r="H178" s="18"/>
@@ -41337,15 +40887,13 @@
       <c r="T178" s="18"/>
       <c r="U178" s="18"/>
       <c r="V178" s="18"/>
-      <c r="W178" s="18"/>
-      <c r="X178" s="18"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="18"/>
-      <c r="E179" s="42"/>
+      <c r="E179" s="18"/>
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18"/>
@@ -41363,15 +40911,13 @@
       <c r="T179" s="18"/>
       <c r="U179" s="18"/>
       <c r="V179" s="18"/>
-      <c r="W179" s="18"/>
-      <c r="X179" s="18"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="18"/>
-      <c r="E180" s="42"/>
+      <c r="E180" s="18"/>
       <c r="F180" s="18"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
@@ -41389,15 +40935,13 @@
       <c r="T180" s="18"/>
       <c r="U180" s="18"/>
       <c r="V180" s="18"/>
-      <c r="W180" s="18"/>
-      <c r="X180" s="18"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="18"/>
-      <c r="E181" s="42"/>
+      <c r="E181" s="18"/>
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
@@ -41415,15 +40959,13 @@
       <c r="T181" s="18"/>
       <c r="U181" s="18"/>
       <c r="V181" s="18"/>
-      <c r="W181" s="18"/>
-      <c r="X181" s="18"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="18"/>
-      <c r="E182" s="42"/>
+      <c r="E182" s="18"/>
       <c r="F182" s="18"/>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
@@ -41441,15 +40983,13 @@
       <c r="T182" s="18"/>
       <c r="U182" s="18"/>
       <c r="V182" s="18"/>
-      <c r="W182" s="18"/>
-      <c r="X182" s="18"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
-      <c r="E183" s="42"/>
+      <c r="E183" s="18"/>
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
@@ -41467,15 +41007,13 @@
       <c r="T183" s="18"/>
       <c r="U183" s="18"/>
       <c r="V183" s="18"/>
-      <c r="W183" s="18"/>
-      <c r="X183" s="18"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="18"/>
-      <c r="E184" s="42"/>
+      <c r="E184" s="18"/>
       <c r="F184" s="18"/>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
@@ -41493,15 +41031,13 @@
       <c r="T184" s="18"/>
       <c r="U184" s="18"/>
       <c r="V184" s="18"/>
-      <c r="W184" s="18"/>
-      <c r="X184" s="18"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
-      <c r="E185" s="42"/>
+      <c r="E185" s="18"/>
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
@@ -41519,15 +41055,13 @@
       <c r="T185" s="18"/>
       <c r="U185" s="18"/>
       <c r="V185" s="18"/>
-      <c r="W185" s="18"/>
-      <c r="X185" s="18"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="18"/>
-      <c r="E186" s="42"/>
+      <c r="E186" s="18"/>
       <c r="F186" s="18"/>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
@@ -41545,15 +41079,13 @@
       <c r="T186" s="18"/>
       <c r="U186" s="18"/>
       <c r="V186" s="18"/>
-      <c r="W186" s="18"/>
-      <c r="X186" s="18"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="18"/>
-      <c r="E187" s="42"/>
+      <c r="E187" s="18"/>
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
@@ -41571,15 +41103,13 @@
       <c r="T187" s="18"/>
       <c r="U187" s="18"/>
       <c r="V187" s="18"/>
-      <c r="W187" s="18"/>
-      <c r="X187" s="18"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
       <c r="D188" s="18"/>
-      <c r="E188" s="42"/>
+      <c r="E188" s="18"/>
       <c r="F188" s="18"/>
       <c r="G188" s="18"/>
       <c r="H188" s="18"/>
@@ -41597,15 +41127,13 @@
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
       <c r="V188" s="18"/>
-      <c r="W188" s="18"/>
-      <c r="X188" s="18"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
       <c r="D189" s="18"/>
-      <c r="E189" s="42"/>
+      <c r="E189" s="18"/>
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
@@ -41623,15 +41151,13 @@
       <c r="T189" s="18"/>
       <c r="U189" s="18"/>
       <c r="V189" s="18"/>
-      <c r="W189" s="18"/>
-      <c r="X189" s="18"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="18"/>
-      <c r="E190" s="42"/>
+      <c r="E190" s="18"/>
       <c r="F190" s="18"/>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
@@ -41649,15 +41175,13 @@
       <c r="T190" s="18"/>
       <c r="U190" s="18"/>
       <c r="V190" s="18"/>
-      <c r="W190" s="18"/>
-      <c r="X190" s="18"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
-      <c r="E191" s="42"/>
+      <c r="E191" s="18"/>
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
       <c r="H191" s="18"/>
@@ -41675,15 +41199,13 @@
       <c r="T191" s="18"/>
       <c r="U191" s="18"/>
       <c r="V191" s="18"/>
-      <c r="W191" s="18"/>
-      <c r="X191" s="18"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
-      <c r="E192" s="42"/>
+      <c r="E192" s="18"/>
       <c r="F192" s="18"/>
       <c r="G192" s="18"/>
       <c r="H192" s="18"/>
@@ -41701,15 +41223,13 @@
       <c r="T192" s="18"/>
       <c r="U192" s="18"/>
       <c r="V192" s="18"/>
-      <c r="W192" s="18"/>
-      <c r="X192" s="18"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="18"/>
-      <c r="E193" s="42"/>
+      <c r="E193" s="18"/>
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
       <c r="H193" s="18"/>
@@ -41727,15 +41247,13 @@
       <c r="T193" s="18"/>
       <c r="U193" s="18"/>
       <c r="V193" s="18"/>
-      <c r="W193" s="18"/>
-      <c r="X193" s="18"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
-      <c r="E194" s="42"/>
+      <c r="E194" s="18"/>
       <c r="F194" s="18"/>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
@@ -41753,15 +41271,13 @@
       <c r="T194" s="18"/>
       <c r="U194" s="18"/>
       <c r="V194" s="18"/>
-      <c r="W194" s="18"/>
-      <c r="X194" s="18"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
-      <c r="E195" s="42"/>
+      <c r="E195" s="18"/>
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
@@ -41779,15 +41295,13 @@
       <c r="T195" s="18"/>
       <c r="U195" s="18"/>
       <c r="V195" s="18"/>
-      <c r="W195" s="18"/>
-      <c r="X195" s="18"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="18"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
-      <c r="E196" s="42"/>
+      <c r="E196" s="18"/>
       <c r="F196" s="18"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
@@ -41805,15 +41319,13 @@
       <c r="T196" s="18"/>
       <c r="U196" s="18"/>
       <c r="V196" s="18"/>
-      <c r="W196" s="18"/>
-      <c r="X196" s="18"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="18"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
       <c r="D197" s="18"/>
-      <c r="E197" s="42"/>
+      <c r="E197" s="18"/>
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
@@ -41831,15 +41343,13 @@
       <c r="T197" s="18"/>
       <c r="U197" s="18"/>
       <c r="V197" s="18"/>
-      <c r="W197" s="18"/>
-      <c r="X197" s="18"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
-      <c r="E198" s="42"/>
+      <c r="E198" s="18"/>
       <c r="F198" s="18"/>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
@@ -41857,15 +41367,13 @@
       <c r="T198" s="18"/>
       <c r="U198" s="18"/>
       <c r="V198" s="18"/>
-      <c r="W198" s="18"/>
-      <c r="X198" s="18"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
       <c r="D199" s="18"/>
-      <c r="E199" s="42"/>
+      <c r="E199" s="18"/>
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
@@ -41883,15 +41391,13 @@
       <c r="T199" s="18"/>
       <c r="U199" s="18"/>
       <c r="V199" s="18"/>
-      <c r="W199" s="18"/>
-      <c r="X199" s="18"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="18"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
       <c r="D200" s="18"/>
-      <c r="E200" s="42"/>
+      <c r="E200" s="18"/>
       <c r="F200" s="18"/>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
@@ -41909,15 +41415,13 @@
       <c r="T200" s="18"/>
       <c r="U200" s="18"/>
       <c r="V200" s="18"/>
-      <c r="W200" s="18"/>
-      <c r="X200" s="18"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
       <c r="D201" s="18"/>
-      <c r="E201" s="42"/>
+      <c r="E201" s="18"/>
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
@@ -41935,15 +41439,13 @@
       <c r="T201" s="18"/>
       <c r="U201" s="18"/>
       <c r="V201" s="18"/>
-      <c r="W201" s="18"/>
-      <c r="X201" s="18"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
       <c r="D202" s="18"/>
-      <c r="E202" s="42"/>
+      <c r="E202" s="18"/>
       <c r="F202" s="18"/>
       <c r="G202" s="18"/>
       <c r="H202" s="18"/>
@@ -41961,15 +41463,13 @@
       <c r="T202" s="18"/>
       <c r="U202" s="18"/>
       <c r="V202" s="18"/>
-      <c r="W202" s="18"/>
-      <c r="X202" s="18"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
       <c r="D203" s="18"/>
-      <c r="E203" s="42"/>
+      <c r="E203" s="18"/>
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
       <c r="H203" s="18"/>
@@ -41987,15 +41487,13 @@
       <c r="T203" s="18"/>
       <c r="U203" s="18"/>
       <c r="V203" s="18"/>
-      <c r="W203" s="18"/>
-      <c r="X203" s="18"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
       <c r="D204" s="18"/>
-      <c r="E204" s="42"/>
+      <c r="E204" s="18"/>
       <c r="F204" s="18"/>
       <c r="G204" s="18"/>
       <c r="H204" s="18"/>
@@ -42013,15 +41511,13 @@
       <c r="T204" s="18"/>
       <c r="U204" s="18"/>
       <c r="V204" s="18"/>
-      <c r="W204" s="18"/>
-      <c r="X204" s="18"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="18"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
       <c r="D205" s="18"/>
-      <c r="E205" s="42"/>
+      <c r="E205" s="18"/>
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
       <c r="H205" s="18"/>
@@ -42039,15 +41535,13 @@
       <c r="T205" s="18"/>
       <c r="U205" s="18"/>
       <c r="V205" s="18"/>
-      <c r="W205" s="18"/>
-      <c r="X205" s="18"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
       <c r="D206" s="18"/>
-      <c r="E206" s="42"/>
+      <c r="E206" s="18"/>
       <c r="F206" s="18"/>
       <c r="G206" s="18"/>
       <c r="H206" s="18"/>
@@ -42065,15 +41559,13 @@
       <c r="T206" s="18"/>
       <c r="U206" s="18"/>
       <c r="V206" s="18"/>
-      <c r="W206" s="18"/>
-      <c r="X206" s="18"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
       <c r="D207" s="18"/>
-      <c r="E207" s="42"/>
+      <c r="E207" s="18"/>
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
       <c r="H207" s="18"/>
@@ -42091,15 +41583,13 @@
       <c r="T207" s="18"/>
       <c r="U207" s="18"/>
       <c r="V207" s="18"/>
-      <c r="W207" s="18"/>
-      <c r="X207" s="18"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="18"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
       <c r="D208" s="18"/>
-      <c r="E208" s="42"/>
+      <c r="E208" s="18"/>
       <c r="F208" s="18"/>
       <c r="G208" s="18"/>
       <c r="H208" s="18"/>
@@ -42117,15 +41607,13 @@
       <c r="T208" s="18"/>
       <c r="U208" s="18"/>
       <c r="V208" s="18"/>
-      <c r="W208" s="18"/>
-      <c r="X208" s="18"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="18"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
       <c r="D209" s="18"/>
-      <c r="E209" s="42"/>
+      <c r="E209" s="18"/>
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
       <c r="H209" s="18"/>
@@ -42143,15 +41631,13 @@
       <c r="T209" s="18"/>
       <c r="U209" s="18"/>
       <c r="V209" s="18"/>
-      <c r="W209" s="18"/>
-      <c r="X209" s="18"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="18"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
-      <c r="E210" s="42"/>
+      <c r="E210" s="18"/>
       <c r="F210" s="18"/>
       <c r="G210" s="18"/>
       <c r="H210" s="18"/>
@@ -42169,15 +41655,13 @@
       <c r="T210" s="18"/>
       <c r="U210" s="18"/>
       <c r="V210" s="18"/>
-      <c r="W210" s="18"/>
-      <c r="X210" s="18"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="18"/>
-      <c r="E211" s="42"/>
+      <c r="E211" s="18"/>
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
       <c r="H211" s="18"/>
@@ -42195,15 +41679,13 @@
       <c r="T211" s="18"/>
       <c r="U211" s="18"/>
       <c r="V211" s="18"/>
-      <c r="W211" s="18"/>
-      <c r="X211" s="18"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="18"/>
-      <c r="E212" s="42"/>
+      <c r="E212" s="18"/>
       <c r="F212" s="18"/>
       <c r="G212" s="18"/>
       <c r="H212" s="18"/>
@@ -42221,15 +41703,13 @@
       <c r="T212" s="18"/>
       <c r="U212" s="18"/>
       <c r="V212" s="18"/>
-      <c r="W212" s="18"/>
-      <c r="X212" s="18"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="18"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="18"/>
-      <c r="E213" s="42"/>
+      <c r="E213" s="18"/>
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
       <c r="H213" s="18"/>
@@ -42247,15 +41727,13 @@
       <c r="T213" s="18"/>
       <c r="U213" s="18"/>
       <c r="V213" s="18"/>
-      <c r="W213" s="18"/>
-      <c r="X213" s="18"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="18"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
       <c r="D214" s="18"/>
-      <c r="E214" s="42"/>
+      <c r="E214" s="18"/>
       <c r="F214" s="18"/>
       <c r="G214" s="18"/>
       <c r="H214" s="18"/>
@@ -42273,15 +41751,13 @@
       <c r="T214" s="18"/>
       <c r="U214" s="18"/>
       <c r="V214" s="18"/>
-      <c r="W214" s="18"/>
-      <c r="X214" s="18"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="18"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
       <c r="D215" s="18"/>
-      <c r="E215" s="42"/>
+      <c r="E215" s="18"/>
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
@@ -42299,15 +41775,13 @@
       <c r="T215" s="18"/>
       <c r="U215" s="18"/>
       <c r="V215" s="18"/>
-      <c r="W215" s="18"/>
-      <c r="X215" s="18"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="18"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
       <c r="D216" s="18"/>
-      <c r="E216" s="42"/>
+      <c r="E216" s="18"/>
       <c r="F216" s="18"/>
       <c r="G216" s="18"/>
       <c r="H216" s="18"/>
@@ -42325,15 +41799,13 @@
       <c r="T216" s="18"/>
       <c r="U216" s="18"/>
       <c r="V216" s="18"/>
-      <c r="W216" s="18"/>
-      <c r="X216" s="18"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="18"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
       <c r="D217" s="18"/>
-      <c r="E217" s="42"/>
+      <c r="E217" s="18"/>
       <c r="F217" s="18"/>
       <c r="G217" s="18"/>
       <c r="H217" s="18"/>
@@ -42351,15 +41823,13 @@
       <c r="T217" s="18"/>
       <c r="U217" s="18"/>
       <c r="V217" s="18"/>
-      <c r="W217" s="18"/>
-      <c r="X217" s="18"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
       <c r="D218" s="18"/>
-      <c r="E218" s="42"/>
+      <c r="E218" s="18"/>
       <c r="F218" s="18"/>
       <c r="G218" s="18"/>
       <c r="H218" s="18"/>
@@ -42377,15 +41847,13 @@
       <c r="T218" s="18"/>
       <c r="U218" s="18"/>
       <c r="V218" s="18"/>
-      <c r="W218" s="18"/>
-      <c r="X218" s="18"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="18"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
       <c r="D219" s="18"/>
-      <c r="E219" s="42"/>
+      <c r="E219" s="18"/>
       <c r="F219" s="18"/>
       <c r="G219" s="18"/>
       <c r="H219" s="18"/>
@@ -42403,15 +41871,13 @@
       <c r="T219" s="18"/>
       <c r="U219" s="18"/>
       <c r="V219" s="18"/>
-      <c r="W219" s="18"/>
-      <c r="X219" s="18"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="18"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="18"/>
-      <c r="E220" s="42"/>
+      <c r="E220" s="18"/>
       <c r="F220" s="18"/>
       <c r="G220" s="18"/>
       <c r="H220" s="18"/>
@@ -42429,2358 +41895,790 @@
       <c r="T220" s="18"/>
       <c r="U220" s="18"/>
       <c r="V220" s="18"/>
-      <c r="W220" s="18"/>
-      <c r="X220" s="18"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="E221" s="42"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="E222" s="43"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="E223" s="44"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="E224" s="44"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="E225" s="44"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="E226" s="44"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="E227" s="44"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="E228" s="44"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="E229" s="44"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="E230" s="44"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="E231" s="44"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="E232" s="44"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="E233" s="44"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="E234" s="44"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="E235" s="44"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="E236" s="44"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="E237" s="44"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="E238" s="44"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="E239" s="44"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="E240" s="44"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="E241" s="44"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="E242" s="44"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="E243" s="44"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="E244" s="44"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="E245" s="44"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="E246" s="44"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="E247" s="44"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="E248" s="44"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="E249" s="44"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="E250" s="44"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="E251" s="44"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="E252" s="44"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="E253" s="44"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="E254" s="44"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="E255" s="44"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="E256" s="44"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="E257" s="44"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="E258" s="44"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="E259" s="44"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="E260" s="44"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="E261" s="44"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="E262" s="44"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="E263" s="44"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="E264" s="44"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="E265" s="44"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="E266" s="44"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="E267" s="44"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="E268" s="44"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="E269" s="44"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="E270" s="44"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="E271" s="44"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="E272" s="44"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="E273" s="44"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="E274" s="44"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="E275" s="44"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="E276" s="44"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="E277" s="44"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="E278" s="44"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="E279" s="44"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="E280" s="44"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="E281" s="44"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="E282" s="44"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="E283" s="44"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="E284" s="44"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="E285" s="44"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="E286" s="44"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="E287" s="44"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="E288" s="44"/>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="E289" s="44"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="E290" s="44"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="E291" s="44"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="E292" s="44"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="E293" s="44"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="E294" s="44"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="E295" s="44"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="E296" s="44"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="E297" s="44"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="E298" s="44"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="E299" s="44"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="E300" s="44"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="E301" s="44"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="E302" s="44"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="E303" s="44"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="E304" s="44"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="E305" s="44"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="E306" s="44"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="E307" s="44"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="E308" s="44"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="E309" s="44"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="E310" s="44"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="E311" s="44"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="E312" s="44"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="E313" s="44"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="E314" s="44"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="E315" s="44"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="E316" s="44"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="E317" s="44"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="E318" s="44"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="E319" s="44"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="E320" s="44"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="E321" s="44"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="E322" s="44"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="E323" s="44"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="E324" s="44"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="E325" s="44"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="E326" s="44"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="E327" s="44"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="E328" s="44"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="E329" s="44"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="E330" s="44"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="E331" s="44"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="E332" s="44"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="44"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="E334" s="44"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="44"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="E336" s="44"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="E337" s="44"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="E338" s="44"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="E339" s="44"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="E340" s="44"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="E341" s="44"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="E342" s="44"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="E343" s="44"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="E344" s="44"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="E345" s="44"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="E346" s="44"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="E347" s="44"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="E348" s="44"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="E349" s="44"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="E350" s="44"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="E351" s="44"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="E352" s="44"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="E353" s="44"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="E354" s="44"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="E355" s="44"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="E356" s="44"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="E357" s="44"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="E358" s="44"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="E359" s="44"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="E360" s="44"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="E361" s="44"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="E362" s="44"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="E363" s="44"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="E364" s="44"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="E365" s="44"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="E366" s="44"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="E367" s="44"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="E368" s="44"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="E369" s="44"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="E370" s="44"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="E371" s="44"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="E372" s="44"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="E373" s="44"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="E374" s="44"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="E375" s="44"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="E376" s="44"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="E377" s="44"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="E378" s="44"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="E379" s="44"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="E380" s="44"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="E381" s="44"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="E382" s="44"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="E383" s="44"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="E384" s="44"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="E385" s="44"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="E386" s="44"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="E387" s="44"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="E388" s="44"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="E389" s="44"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="E390" s="44"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="E391" s="44"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="E392" s="44"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="E393" s="44"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="E394" s="44"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="E395" s="44"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="E396" s="44"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="E397" s="44"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="E398" s="44"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="E399" s="44"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="E400" s="44"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="E401" s="44"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="E402" s="44"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="E403" s="44"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="E404" s="44"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="E405" s="44"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="E406" s="44"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="E407" s="44"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="E408" s="44"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="E409" s="44"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="E410" s="44"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="E411" s="44"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="E412" s="44"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="E413" s="44"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="E414" s="44"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="E415" s="44"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="E416" s="44"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="E417" s="44"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="E418" s="44"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="E419" s="44"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="E420" s="44"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="E421" s="44"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="E422" s="44"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="E423" s="44"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="E424" s="44"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="E425" s="44"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="E426" s="44"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="E427" s="44"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="E428" s="44"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="E429" s="44"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="E430" s="44"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="E431" s="44"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="E432" s="44"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="E433" s="44"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="E434" s="44"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="E435" s="44"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="E436" s="44"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="E437" s="44"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="E438" s="44"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="E439" s="44"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="E440" s="44"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="E441" s="44"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="E442" s="44"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="E443" s="44"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="E444" s="44"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="E445" s="44"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="E446" s="44"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="E447" s="44"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="E448" s="44"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="E449" s="44"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="E450" s="44"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="E451" s="44"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="E452" s="44"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="E453" s="44"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="E454" s="44"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="E455" s="44"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="E456" s="44"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="E457" s="44"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="E458" s="44"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="E459" s="44"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="E460" s="44"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="E461" s="44"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="E462" s="44"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="E463" s="44"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="E464" s="44"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="E465" s="44"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="E466" s="44"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="E467" s="44"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="E468" s="44"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="E469" s="44"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="E470" s="44"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="E471" s="44"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="E472" s="44"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="E473" s="44"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="E474" s="44"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="E475" s="44"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="E476" s="44"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="E477" s="44"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="E478" s="44"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="E479" s="44"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="E480" s="44"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="E481" s="44"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="E482" s="44"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="E483" s="44"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="E484" s="44"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="E485" s="44"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="E486" s="44"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="E487" s="44"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="E488" s="44"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="E489" s="44"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="E490" s="44"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="E491" s="44"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="E492" s="44"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="E493" s="44"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="E494" s="44"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="E495" s="44"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="E496" s="44"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="E497" s="44"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="E498" s="44"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="E499" s="44"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="E500" s="44"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="E501" s="44"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="E502" s="44"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="E503" s="44"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="E504" s="44"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="E505" s="44"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="E506" s="44"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="E507" s="44"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="E508" s="44"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="E509" s="44"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="E510" s="44"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="E511" s="44"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="E512" s="44"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="E513" s="44"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="E514" s="44"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="E515" s="44"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="E516" s="44"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="E517" s="44"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="E518" s="44"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="E519" s="44"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="E520" s="44"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="E521" s="44"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="E522" s="44"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="E523" s="44"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="E524" s="44"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="E525" s="44"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="E526" s="44"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="E527" s="44"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="E528" s="44"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="E529" s="44"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="E530" s="44"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="E531" s="44"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="E532" s="44"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="E533" s="44"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="E534" s="44"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="E535" s="44"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="E536" s="44"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="E537" s="44"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="E538" s="44"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="E539" s="44"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="E540" s="44"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="E541" s="44"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="E542" s="44"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="E543" s="44"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="E544" s="44"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="E545" s="44"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="E546" s="44"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="E547" s="44"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="E548" s="44"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="E549" s="44"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="E550" s="44"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="E551" s="44"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="E552" s="44"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="E553" s="44"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="E554" s="44"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="E555" s="44"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="E556" s="44"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="E557" s="44"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="E558" s="44"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="E559" s="44"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="E560" s="44"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="E561" s="44"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="E562" s="44"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="E563" s="44"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="E564" s="44"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="E565" s="44"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="E566" s="44"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="E567" s="44"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="E568" s="44"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="E569" s="44"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="E570" s="44"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="E571" s="44"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="E572" s="44"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="E573" s="44"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="E574" s="44"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="E575" s="44"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="E576" s="44"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="E577" s="44"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="E578" s="44"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="E579" s="44"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="E580" s="44"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="E581" s="44"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="E582" s="44"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="E583" s="44"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="E584" s="44"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="E585" s="44"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="E586" s="44"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="E587" s="44"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="E588" s="44"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="E589" s="44"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="E590" s="44"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="E591" s="44"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="E592" s="44"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="E593" s="44"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="E594" s="44"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="E595" s="44"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="E596" s="44"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="E597" s="44"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="E598" s="44"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="E599" s="44"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="E600" s="44"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="E601" s="44"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="E602" s="44"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="E603" s="44"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="E604" s="44"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="E605" s="44"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="E606" s="44"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="E607" s="44"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="E608" s="44"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="E609" s="44"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="E610" s="44"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="E611" s="44"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="E612" s="44"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="E613" s="44"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="E614" s="44"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="E615" s="44"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="E616" s="44"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="E617" s="44"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="E618" s="44"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="E619" s="44"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="E620" s="44"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="E621" s="44"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="E622" s="44"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="E623" s="44"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="E624" s="44"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="E625" s="44"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="E626" s="44"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="E627" s="44"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="E628" s="44"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="E629" s="44"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="E630" s="44"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="E631" s="44"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="E632" s="44"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="E633" s="44"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="E634" s="44"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="E635" s="44"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="E636" s="44"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="E637" s="44"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="E638" s="44"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="E639" s="44"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="E640" s="44"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="E641" s="44"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="E642" s="44"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="E643" s="44"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="E644" s="44"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="E645" s="44"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="E646" s="44"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="E647" s="44"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="E648" s="44"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="E649" s="44"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="E650" s="44"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="E651" s="44"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="E652" s="44"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="E653" s="44"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="E654" s="44"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="E655" s="44"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="E656" s="44"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="E657" s="44"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="E658" s="44"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="E659" s="44"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="E660" s="44"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="E661" s="44"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="E662" s="44"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="E663" s="44"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="E664" s="44"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="E665" s="44"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="E666" s="44"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="E667" s="44"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="E668" s="44"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="E669" s="44"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="E670" s="44"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="E671" s="44"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="E672" s="44"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="E673" s="44"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="E674" s="44"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="E675" s="44"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="E676" s="44"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="E677" s="44"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="E678" s="44"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="E679" s="44"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="E680" s="44"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="E681" s="44"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="E682" s="44"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="E683" s="44"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="E684" s="44"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="E685" s="44"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="E686" s="44"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="E687" s="44"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="E688" s="44"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="E689" s="44"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="E690" s="44"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="E691" s="44"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="E692" s="44"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="E693" s="44"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="E694" s="44"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="E695" s="44"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="E696" s="44"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="E697" s="44"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="E698" s="44"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="E699" s="44"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="E700" s="44"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="E701" s="44"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="E702" s="44"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="E703" s="44"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="E704" s="44"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="E705" s="44"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="E706" s="44"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="E707" s="44"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="E708" s="44"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="E709" s="44"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="E710" s="44"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="E711" s="44"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="E712" s="44"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="E713" s="44"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="E714" s="44"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="E715" s="44"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="E716" s="44"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="E717" s="44"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="E718" s="44"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="E719" s="44"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="E720" s="44"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="E721" s="44"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="E722" s="44"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="E723" s="44"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="E724" s="44"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="E725" s="44"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="E726" s="44"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="E727" s="44"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="E728" s="44"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="E729" s="44"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="E730" s="44"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="E731" s="44"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="E732" s="44"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="E733" s="44"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="E734" s="44"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="E735" s="44"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="E736" s="44"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="E737" s="44"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="E738" s="44"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="E739" s="44"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="E740" s="44"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="E741" s="44"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="E742" s="44"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="E743" s="44"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="E744" s="44"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="E745" s="44"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="E746" s="44"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="E747" s="44"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="E748" s="44"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="E749" s="44"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="E750" s="44"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="E751" s="44"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="E752" s="44"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="E753" s="44"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="E754" s="44"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="E755" s="44"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="E756" s="44"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="E757" s="44"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="E758" s="44"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="E759" s="44"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="E760" s="44"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="E761" s="44"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="E762" s="44"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="E763" s="44"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="E764" s="44"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="E765" s="44"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="E766" s="44"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="E767" s="44"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="E768" s="44"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="E769" s="44"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="E770" s="44"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="E771" s="44"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="E772" s="44"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="E773" s="44"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="E774" s="44"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="E775" s="44"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="E776" s="44"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="E777" s="44"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="E778" s="44"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="E779" s="44"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="E780" s="44"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="E781" s="44"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="E782" s="44"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="E783" s="44"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="E784" s="44"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="E785" s="44"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="E786" s="44"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="E787" s="44"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="E788" s="44"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="E789" s="44"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="E790" s="44"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="E791" s="44"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="E792" s="44"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="E793" s="44"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="E794" s="44"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="E795" s="44"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="E796" s="44"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="E797" s="44"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="E798" s="44"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="E799" s="44"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="E800" s="44"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="E801" s="44"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="E802" s="44"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="E803" s="44"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="E804" s="44"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="E805" s="44"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="E806" s="44"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="E807" s="44"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="E808" s="44"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="E809" s="44"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="E810" s="44"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="E811" s="44"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="E812" s="44"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="E813" s="44"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="E814" s="44"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="E815" s="44"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="E816" s="44"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="E817" s="44"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="E818" s="44"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="E819" s="44"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="E820" s="44"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="E821" s="44"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="E822" s="44"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="E823" s="44"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="E824" s="44"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="E825" s="44"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="E826" s="44"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="E827" s="44"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="E828" s="44"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="E829" s="44"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="E830" s="44"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="E831" s="44"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="E832" s="44"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="E833" s="44"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="E834" s="44"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="E835" s="44"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="E836" s="44"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="E837" s="44"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="E838" s="44"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="E839" s="44"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="E840" s="44"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="E841" s="44"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="E842" s="44"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="E843" s="44"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="E844" s="44"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="E845" s="44"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="E846" s="44"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="E847" s="44"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="E848" s="44"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="E849" s="44"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="E850" s="44"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="E851" s="44"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="E852" s="44"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="E853" s="44"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="E854" s="44"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="E855" s="44"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="E856" s="44"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="E857" s="44"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="E858" s="44"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="E859" s="44"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="E860" s="44"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="E861" s="44"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="E862" s="44"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="E863" s="44"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="E864" s="44"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="E865" s="44"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="E866" s="44"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="E867" s="44"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="E868" s="44"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="E869" s="44"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="E870" s="44"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="E871" s="44"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="E872" s="44"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="E873" s="44"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="E874" s="44"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="E875" s="44"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="E876" s="44"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="E877" s="44"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="E878" s="44"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="E879" s="44"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="E880" s="44"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="E881" s="44"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="E882" s="44"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="E883" s="44"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="E884" s="44"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="E885" s="44"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="E886" s="44"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="E887" s="44"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="E888" s="44"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="E889" s="44"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="E890" s="44"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="E891" s="44"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="E892" s="44"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="E893" s="44"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="E894" s="44"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="E895" s="44"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="E896" s="44"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="E897" s="44"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="E898" s="44"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="E899" s="44"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="E900" s="44"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="E901" s="44"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="E902" s="44"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="E903" s="44"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="E904" s="44"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="E905" s="44"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="E906" s="44"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="E907" s="44"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="E908" s="44"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="E909" s="44"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="E910" s="44"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="E911" s="44"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="E912" s="44"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="E913" s="44"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="E914" s="44"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="E915" s="44"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="E916" s="44"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="E917" s="44"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="E918" s="44"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="E919" s="44"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="E920" s="44"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="E921" s="44"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="E922" s="44"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="E923" s="44"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="E924" s="44"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="E925" s="44"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="E926" s="44"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="E927" s="44"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="E928" s="44"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="E929" s="44"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="E930" s="44"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="E931" s="44"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="E932" s="44"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="E933" s="44"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="E934" s="44"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="E935" s="44"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="E936" s="44"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="E937" s="44"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="E938" s="44"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="E939" s="44"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="E940" s="44"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="E941" s="44"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="E942" s="44"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="E943" s="44"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="E944" s="44"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="E945" s="44"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="E946" s="44"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="E947" s="44"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="E948" s="44"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="E949" s="44"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="E950" s="44"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="E951" s="44"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="E952" s="44"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="E953" s="44"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="E954" s="44"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="E955" s="44"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="E956" s="44"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="E957" s="44"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="E958" s="44"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="E959" s="44"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="E960" s="44"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="E961" s="44"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="E962" s="44"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="E963" s="44"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="E964" s="44"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="E965" s="44"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="E966" s="44"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="E967" s="44"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="E968" s="44"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="E969" s="44"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="E970" s="44"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="E971" s="44"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="E972" s="44"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="E973" s="44"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="E974" s="44"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="E975" s="44"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="E976" s="44"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="E977" s="44"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="E978" s="44"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="E979" s="44"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="E980" s="44"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="E981" s="44"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="E982" s="44"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="E983" s="44"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="E984" s="44"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="E985" s="44"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="E986" s="44"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="E987" s="44"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="E988" s="44"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="E989" s="44"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="E990" s="44"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="E991" s="44"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="E992" s="44"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="E993" s="44"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="E994" s="44"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="E995" s="44"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="E996" s="44"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="E997" s="44"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="E998" s="44"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="E999" s="44"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="E1000" s="44"/>
-    </row>
-    <row r="1001" ht="15.75" customHeight="1">
-      <c r="E1001" s="44"/>
-    </row>
-    <row r="1002" ht="15.75" customHeight="1">
-      <c r="E1002" s="44"/>
-    </row>
-    <row r="1003" ht="15.75" customHeight="1">
-      <c r="E1003" s="44"/>
-    </row>
+    </row>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/Template Paramètres Modèle V3.0.xlsx
+++ b/Template Paramètres Modèle V3.0.xlsx
@@ -131,7 +131,7 @@
     <t>Valeur</t>
   </si>
   <si>
-    <t>% Des cas symptomatiques</t>
+    <t>% D'hospitalisation  (cas graves)</t>
   </si>
   <si>
     <t>Durée d'Incubation</t>
@@ -472,7 +472,7 @@
     <xdr:ext cx="5286375" cy="3038475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -500,7 +500,7 @@
     <xdr:ext cx="5734050" cy="2971800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/Template Paramètres Modèle V3.0.xlsx
+++ b/Template Paramètres Modèle V3.0.xlsx
@@ -185,7 +185,7 @@
     <numFmt numFmtId="164" formatCode="d\-m"/>
     <numFmt numFmtId="165" formatCode="m-d"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -265,15 +265,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -602,16 +609,16 @@
     <xf borderId="8" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -638,7 +645,7 @@
     <xf borderId="10" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -647,7 +654,7 @@
     <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -42957,7 +42964,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="47">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>46</v>

--- a/Template Paramètres Modèle V3.0.xlsx
+++ b/Template Paramètres Modèle V3.0.xlsx
@@ -185,7 +185,7 @@
     <numFmt numFmtId="164" formatCode="d\-m"/>
     <numFmt numFmtId="165" formatCode="m-d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -299,6 +299,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="&quot;Liberation Sans&quot;"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -648,13 +653,13 @@
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -686,7 +691,7 @@
     <xdr:ext cx="5286375" cy="3038475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -714,7 +719,7 @@
     <xdr:ext cx="5734050" cy="2971800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -43117,25 +43122,25 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="63">
-        <v>0.0</v>
+        <v>0.00105137340320382</v>
       </c>
       <c r="C6" s="63">
-        <v>0.0</v>
+        <v>0.00167511340927269</v>
       </c>
       <c r="D6" s="63">
-        <v>0.0</v>
+        <v>0.0035504881103201</v>
       </c>
       <c r="E6" s="63">
-        <v>0.0</v>
+        <v>0.00317563534420058</v>
       </c>
       <c r="F6" s="63">
-        <v>0.0</v>
+        <v>0.00338665712843472</v>
       </c>
       <c r="G6" s="63">
-        <v>0.0</v>
+        <v>0.00475426810356568</v>
       </c>
       <c r="H6" s="63">
-        <v>0.0</v>
+        <v>0.00318547938144918</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
@@ -43161,25 +43166,25 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="63">
-        <v>0.0</v>
+        <v>0.0039815141356228</v>
       </c>
       <c r="C7" s="63">
-        <v>0.0</v>
+        <v>0.00568100155099873</v>
       </c>
       <c r="D7" s="63">
-        <v>0.0</v>
+        <v>0.0121599369530356</v>
       </c>
       <c r="E7" s="63">
-        <v>0.0</v>
+        <v>0.0132406100416052</v>
       </c>
       <c r="F7" s="63">
-        <v>0.0</v>
+        <v>0.0134970942915671</v>
       </c>
       <c r="G7" s="63">
-        <v>0.0</v>
+        <v>0.0168040891406123</v>
       </c>
       <c r="H7" s="63">
-        <v>0.0</v>
+        <v>0.0133753974568754</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="65"/>
@@ -43205,25 +43210,25 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="63">
-        <v>0.0</v>
+        <v>0.00849427056776904</v>
       </c>
       <c r="C8" s="63">
-        <v>0.0</v>
+        <v>0.0109379022623404</v>
       </c>
       <c r="D8" s="63">
-        <v>0.0</v>
+        <v>0.0233260710784377</v>
       </c>
       <c r="E8" s="63">
-        <v>0.0</v>
+        <v>0.0293441838992201</v>
       </c>
       <c r="F8" s="63">
-        <v>0.0</v>
+        <v>0.0290326829471171</v>
       </c>
       <c r="G8" s="63">
-        <v>0.0</v>
+        <v>0.0328703791550677</v>
       </c>
       <c r="H8" s="63">
-        <v>0.0</v>
+        <v>0.0332272032646752</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
@@ -43249,25 +43254,25 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="63">
-        <v>0.0</v>
+        <v>0.013848515857383</v>
       </c>
       <c r="C9" s="63">
-        <v>0.0</v>
+        <v>0.0165368547633886</v>
       </c>
       <c r="D9" s="63">
-        <v>0.0</v>
+        <v>0.0348214747055885</v>
       </c>
       <c r="E9" s="63">
-        <v>0.0</v>
+        <v>0.0470979224084365</v>
       </c>
       <c r="F9" s="63">
-        <v>0.0</v>
+        <v>0.045997466085825</v>
       </c>
       <c r="G9" s="63">
-        <v>0.0</v>
+        <v>0.0493484955362418</v>
       </c>
       <c r="H9" s="63">
-        <v>0.0</v>
+        <v>0.0662833125541753</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
@@ -43293,25 +43298,25 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="63">
-        <v>0.0</v>
+        <v>0.0192211559912648</v>
       </c>
       <c r="C10" s="63">
-        <v>0.0</v>
+        <v>0.0218940040082893</v>
       </c>
       <c r="D10" s="63">
-        <v>0.0</v>
+        <v>0.045549362243986</v>
       </c>
       <c r="E10" s="63">
-        <v>0.0</v>
+        <v>0.0637327066777891</v>
       </c>
       <c r="F10" s="63">
-        <v>0.0</v>
+        <v>0.0618958027420707</v>
       </c>
       <c r="G10" s="63">
-        <v>0.0</v>
+        <v>0.06458737660548</v>
       </c>
       <c r="H10" s="63">
-        <v>0.0</v>
+        <v>0.115210739831047</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
@@ -43337,25 +43342,25 @@
         <v>7.0</v>
       </c>
       <c r="B11" s="63">
-        <v>0.0</v>
+        <v>0.0242087025121926</v>
       </c>
       <c r="C11" s="63">
-        <v>0.0</v>
+        <v>0.0268052084647563</v>
       </c>
       <c r="D11" s="63">
-        <v>0.0</v>
+        <v>0.0553001151875042</v>
       </c>
       <c r="E11" s="63">
-        <v>0.0</v>
+        <v>0.0788255622628093</v>
       </c>
       <c r="F11" s="63">
-        <v>0.0</v>
+        <v>0.0763231080760988</v>
       </c>
       <c r="G11" s="63">
-        <v>0.0</v>
+        <v>0.0783996340379767</v>
       </c>
       <c r="H11" s="63">
-        <v>0.0</v>
+        <v>0.180631466625817</v>
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -43381,25 +43386,25 @@
         <v>8.0</v>
       </c>
       <c r="B12" s="63">
-        <v>0.0</v>
+        <v>0.028738606351186</v>
       </c>
       <c r="C12" s="63">
-        <v>0.0</v>
+        <v>0.0312578190757296</v>
       </c>
       <c r="D12" s="63">
-        <v>0.0</v>
+        <v>0.0641264975398869</v>
       </c>
       <c r="E12" s="63">
-        <v>0.0</v>
+        <v>0.0924834502287829</v>
       </c>
       <c r="F12" s="63">
-        <v>0.0</v>
+        <v>0.0893788190895889</v>
       </c>
       <c r="G12" s="63">
-        <v>0.0</v>
+        <v>0.0908981784545778</v>
       </c>
       <c r="H12" s="63">
-        <v>0.0</v>
+        <v>0.260703639558469</v>
       </c>
       <c r="I12" s="45"/>
       <c r="J12" s="45"/>
@@ -43425,25 +43430,25 @@
         <v>9.0</v>
       </c>
       <c r="B13" s="63">
-        <v>0.0</v>
+        <v>0.0328387000773316</v>
       </c>
       <c r="C13" s="63">
-        <v>0.0</v>
+        <v>0.0352874560057923</v>
       </c>
       <c r="D13" s="63">
-        <v>0.0</v>
+        <v>0.0721131203806881</v>
       </c>
       <c r="E13" s="63">
-        <v>0.0</v>
+        <v>0.104841638650533</v>
       </c>
       <c r="F13" s="63">
-        <v>0.0</v>
+        <v>0.101192133692</v>
       </c>
       <c r="G13" s="63">
-        <v>0.0</v>
+        <v>0.102207337442557</v>
       </c>
       <c r="H13" s="63">
-        <v>0.0</v>
+        <v>0.351444208618717</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
@@ -43469,25 +43474,25 @@
         <v>10.0</v>
       </c>
       <c r="B14" s="63">
-        <v>0.0</v>
+        <v>0.0365486702767184</v>
       </c>
       <c r="C14" s="63">
-        <v>0.0</v>
+        <v>0.0389336619400834</v>
       </c>
       <c r="D14" s="63">
-        <v>0.0</v>
+        <v>0.0793397218139769</v>
       </c>
       <c r="E14" s="63">
-        <v>0.0</v>
+        <v>0.116023790124675</v>
       </c>
       <c r="F14" s="63">
-        <v>0.0</v>
+        <v>0.111881262894327</v>
       </c>
       <c r="G14" s="63">
-        <v>0.0</v>
+        <v>0.112440287702628</v>
       </c>
       <c r="H14" s="63">
-        <v>0.0</v>
+        <v>0.447759152637653</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
@@ -43513,25 +43518,25 @@
         <v>11.0</v>
       </c>
       <c r="B15" s="63">
-        <v>0.0</v>
+        <v>0.0399055913186593</v>
       </c>
       <c r="C15" s="63">
-        <v>0.0</v>
+        <v>0.042232886829116</v>
       </c>
       <c r="D15" s="63">
-        <v>0.0</v>
+        <v>0.0858786213451157</v>
       </c>
       <c r="E15" s="63">
-        <v>0.0</v>
+        <v>0.126141819191467</v>
       </c>
       <c r="F15" s="63">
-        <v>0.0</v>
+        <v>0.12155318696122</v>
       </c>
       <c r="G15" s="63">
-        <v>0.0</v>
+        <v>0.121699443993161</v>
       </c>
       <c r="H15" s="63">
-        <v>0.0</v>
+        <v>0.544741776566573</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
@@ -43557,25 +43562,25 @@
         <v>12.0</v>
       </c>
       <c r="B16" s="63">
-        <v>0.0</v>
+        <v>0.0399055913186593</v>
       </c>
       <c r="C16" s="63">
-        <v>0.0</v>
+        <v>0.042232886829116</v>
       </c>
       <c r="D16" s="63">
-        <v>0.0</v>
+        <v>0.0858786213451157</v>
       </c>
       <c r="E16" s="63">
-        <v>0.0</v>
+        <v>0.126141819191467</v>
       </c>
       <c r="F16" s="63">
-        <v>0.0</v>
+        <v>0.12155318696122</v>
       </c>
       <c r="G16" s="63">
-        <v>0.0</v>
+        <v>0.121699443993161</v>
       </c>
       <c r="H16" s="63">
-        <v>0.0</v>
+        <v>0.544741776566573</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
@@ -43601,25 +43606,25 @@
         <v>13.0</v>
       </c>
       <c r="B17" s="63">
-        <v>0.0</v>
+        <v>0.0569249550081707</v>
       </c>
       <c r="C17" s="63">
-        <v>0.0</v>
+        <v>0.0583077966458305</v>
       </c>
       <c r="D17" s="63">
-        <v>0.0</v>
+        <v>0.118482511067387</v>
       </c>
       <c r="E17" s="63">
-        <v>0.0</v>
+        <v>0.188445644653571</v>
       </c>
       <c r="F17" s="63">
-        <v>0.0</v>
+        <v>0.187694789608977</v>
       </c>
       <c r="G17" s="63">
-        <v>0.0</v>
+        <v>0.193140949104858</v>
       </c>
       <c r="H17" s="63">
-        <v>0.0</v>
+        <v>0.682706166411584</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
@@ -43645,25 +43650,25 @@
         <v>14.0</v>
       </c>
       <c r="B18" s="63">
-        <v>0.0</v>
+        <v>0.0957560929060095</v>
       </c>
       <c r="C18" s="63">
-        <v>0.0</v>
+        <v>0.0959418190495232</v>
       </c>
       <c r="D18" s="63">
-        <v>0.0</v>
+        <v>0.196427530006238</v>
       </c>
       <c r="E18" s="63">
-        <v>0.0</v>
+        <v>0.32927977391288</v>
       </c>
       <c r="F18" s="63">
-        <v>0.0</v>
+        <v>0.330156669428108</v>
       </c>
       <c r="G18" s="63">
-        <v>0.0</v>
+        <v>0.341910737431601</v>
       </c>
       <c r="H18" s="63">
-        <v>0.0</v>
+        <v>0.91842613525977</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
@@ -43689,25 +43694,25 @@
         <v>15.0</v>
       </c>
       <c r="B19" s="63">
-        <v>0.0</v>
+        <v>0.146517305238854</v>
       </c>
       <c r="C19" s="63">
-        <v>0.0</v>
+        <v>0.147263914399256</v>
       </c>
       <c r="D19" s="63">
-        <v>0.0</v>
+        <v>0.302903420666933</v>
       </c>
       <c r="E19" s="63">
-        <v>0.0</v>
+        <v>0.499216548727549</v>
       </c>
       <c r="F19" s="63">
-        <v>0.0</v>
+        <v>0.494550870445783</v>
       </c>
       <c r="G19" s="63">
-        <v>0.0</v>
+        <v>0.509097513089241</v>
       </c>
       <c r="H19" s="63">
-        <v>0.0</v>
+        <v>1.28180637349999</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
@@ -43733,25 +43738,25 @@
         <v>16.0</v>
       </c>
       <c r="B20" s="63">
-        <v>0.0</v>
+        <v>0.199089472276111</v>
       </c>
       <c r="C20" s="63">
-        <v>0.0</v>
+        <v>0.202350177520751</v>
       </c>
       <c r="D20" s="63">
-        <v>0.0</v>
+        <v>0.415047841015699</v>
       </c>
       <c r="E20" s="63">
-        <v>0.0</v>
+        <v>0.662423417859582</v>
       </c>
       <c r="F20" s="63">
-        <v>0.0</v>
+        <v>0.650128613122368</v>
       </c>
       <c r="G20" s="63">
-        <v>0.0</v>
+        <v>0.666225209953725</v>
       </c>
       <c r="H20" s="63">
-        <v>0.0</v>
+        <v>1.79651491687766</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
@@ -43777,25 +43782,25 @@
         <v>17.0</v>
       </c>
       <c r="B21" s="63">
-        <v>0.0</v>
+        <v>0.24826358615401</v>
       </c>
       <c r="C21" s="63">
-        <v>0.0</v>
+        <v>0.254778578198927</v>
       </c>
       <c r="D21" s="63">
-        <v>0.0</v>
+        <v>0.52021651568418</v>
       </c>
       <c r="E21" s="63">
-        <v>0.0</v>
+        <v>0.810943950441551</v>
       </c>
       <c r="F21" s="63">
-        <v>0.0</v>
+        <v>0.791431784053451</v>
       </c>
       <c r="G21" s="63">
-        <v>0.0</v>
+        <v>0.808828972113961</v>
       </c>
       <c r="H21" s="63">
-        <v>0.0</v>
+        <v>2.46553860798389</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="45"/>
@@ -43821,25 +43826,25 @@
         <v>18.0</v>
       </c>
       <c r="B22" s="63">
-        <v>0.0</v>
+        <v>0.292971878388809</v>
       </c>
       <c r="C22" s="63">
-        <v>0.0</v>
+        <v>0.302667979078673</v>
       </c>
       <c r="D22" s="63">
-        <v>0.0</v>
+        <v>0.615847982166032</v>
       </c>
       <c r="E22" s="63">
-        <v>0.0</v>
+        <v>0.945363357584145</v>
       </c>
       <c r="F22" s="63">
-        <v>0.0</v>
+        <v>0.919305195556976</v>
       </c>
       <c r="G22" s="63">
-        <v>0.0</v>
+        <v>0.937874692820328</v>
       </c>
       <c r="H22" s="63">
-        <v>0.0</v>
+        <v>3.2675109612803</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
@@ -43865,25 +43870,25 @@
         <v>19.0</v>
       </c>
       <c r="B23" s="63">
-        <v>0.0</v>
+        <v>0.333441154069007</v>
       </c>
       <c r="C23" s="63">
-        <v>0.0</v>
+        <v>0.34604608800655</v>
       </c>
       <c r="D23" s="63">
-        <v>0.0</v>
+        <v>0.702413695561015</v>
       </c>
       <c r="E23" s="63">
-        <v>0.0</v>
+        <v>1.06699165895096</v>
       </c>
       <c r="F23" s="63">
-        <v>0.0</v>
+        <v>1.03501007726122</v>
       </c>
       <c r="G23" s="63">
-        <v>0.0</v>
+        <v>1.05464023297793</v>
       </c>
       <c r="H23" s="63">
-        <v>0.0</v>
+        <v>4.16169680032984</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
@@ -43909,25 +43914,25 @@
         <v>20.0</v>
       </c>
       <c r="B24" s="63">
-        <v>0.0</v>
+        <v>0.370059887806247</v>
       </c>
       <c r="C24" s="63">
-        <v>0.0</v>
+        <v>0.385299026303341</v>
       </c>
       <c r="D24" s="63">
-        <v>0.0</v>
+        <v>0.780743184645855</v>
       </c>
       <c r="E24" s="63">
-        <v>0.0</v>
+        <v>1.17704550276389</v>
       </c>
       <c r="F24" s="63">
-        <v>0.0</v>
+        <v>1.13970418512023</v>
       </c>
       <c r="G24" s="63">
-        <v>0.0</v>
+        <v>1.16029406349707</v>
       </c>
       <c r="H24" s="63">
-        <v>0.0</v>
+        <v>5.09911058555351</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
@@ -43953,25 +43958,25 @@
         <v>21.0</v>
       </c>
       <c r="B25" s="63">
-        <v>0.0</v>
+        <v>0.403193902103176</v>
       </c>
       <c r="C25" s="63">
-        <v>0.0</v>
+        <v>0.420816658769596</v>
       </c>
       <c r="D25" s="63">
-        <v>0.0</v>
+        <v>0.85161868561351</v>
       </c>
       <c r="E25" s="63">
-        <v>0.0</v>
+        <v>1.27662633867552</v>
       </c>
       <c r="F25" s="63">
-        <v>0.0</v>
+        <v>1.23443533136319</v>
       </c>
       <c r="G25" s="63">
-        <v>0.0</v>
+        <v>1.2558936027108</v>
       </c>
       <c r="H25" s="63">
-        <v>0.0</v>
+        <v>6.0346594084898</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
@@ -43997,25 +44002,25 @@
         <v>22.0</v>
       </c>
       <c r="B26" s="63">
-        <v>0.0</v>
+        <v>0.433174798230056</v>
       </c>
       <c r="C26" s="63">
-        <v>0.0</v>
+        <v>0.452954344178464</v>
       </c>
       <c r="D26" s="63">
-        <v>0.0</v>
+        <v>0.915749491952297</v>
       </c>
       <c r="E26" s="63">
-        <v>0.0</v>
+        <v>1.36673080512706</v>
       </c>
       <c r="F26" s="63">
-        <v>0.0</v>
+        <v>1.32015161713666</v>
       </c>
       <c r="G26" s="63">
-        <v>0.0</v>
+        <v>1.34239564293723</v>
       </c>
       <c r="H26" s="63">
-        <v>0.0</v>
+        <v>6.93494104062274</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
@@ -44041,25 +44046,25 @@
         <v>23.0</v>
       </c>
       <c r="B27" s="63">
-        <v>0.0</v>
+        <v>0.0399055913186593</v>
       </c>
       <c r="C27" s="63">
-        <v>0.0</v>
+        <v>0.042232886829116</v>
       </c>
       <c r="D27" s="63">
-        <v>0.0</v>
+        <v>0.0858786213451157</v>
       </c>
       <c r="E27" s="63">
-        <v>0.0</v>
+        <v>0.126141819191467</v>
       </c>
       <c r="F27" s="63">
-        <v>0.0</v>
+        <v>0.12155318696122</v>
       </c>
       <c r="G27" s="63">
-        <v>0.0</v>
+        <v>0.121699443993161</v>
       </c>
       <c r="H27" s="63">
-        <v>0.0</v>
+        <v>0.544741776566573</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45"/>
@@ -44085,25 +44090,25 @@
         <v>24.0</v>
       </c>
       <c r="B28" s="63">
-        <v>0.0</v>
+        <v>0.193423079977132</v>
       </c>
       <c r="C28" s="63">
-        <v>0.0</v>
+        <v>0.188088644793179</v>
       </c>
       <c r="D28" s="63">
-        <v>0.0</v>
+        <v>0.356091693374232</v>
       </c>
       <c r="E28" s="63">
-        <v>0.0</v>
+        <v>0.615686809575462</v>
       </c>
       <c r="F28" s="63">
-        <v>0.0</v>
+        <v>0.647436037903702</v>
       </c>
       <c r="G28" s="63">
-        <v>0.0</v>
+        <v>0.69665401088701</v>
       </c>
       <c r="H28" s="63">
-        <v>0.0</v>
+        <v>1.77716345106352</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="45"/>
@@ -44129,25 +44134,25 @@
         <v>25.0</v>
       </c>
       <c r="B29" s="63">
-        <v>0.0</v>
+        <v>0.524810968145877</v>
       </c>
       <c r="C29" s="63">
-        <v>0.0</v>
+        <v>0.510511851841295</v>
       </c>
       <c r="D29" s="63">
-        <v>0.0</v>
+        <v>0.958704711235002</v>
       </c>
       <c r="E29" s="63">
-        <v>0.0</v>
+        <v>1.65036611346649</v>
       </c>
       <c r="F29" s="63">
-        <v>0.0</v>
+        <v>1.70168734916699</v>
       </c>
       <c r="G29" s="63">
-        <v>0.0</v>
+        <v>1.80476386299495</v>
       </c>
       <c r="H29" s="63">
-        <v>0.0</v>
+        <v>3.78203532010608</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>

--- a/Template Paramètres Modèle V3.0.xlsx
+++ b/Template Paramètres Modèle V3.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Template v3.0</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Valeur</t>
   </si>
   <si>
-    <t>% D'hospitalisation  (cas graves)</t>
+    <t>Taux d'hospitalisation  (cas graves)</t>
   </si>
   <si>
     <t>Durée d'Incubation</t>
@@ -144,7 +144,7 @@
     <t>Durée de contagiosité</t>
   </si>
   <si>
-    <t>Taux de létalité (nombre de décès par nombre de cas infectés)</t>
+    <t>Taux de létalité (nombre de décès par nombre d'hospitalisés )</t>
   </si>
   <si>
     <t>R0</t>
@@ -153,7 +153,10 @@
     <t>Pas d'unité</t>
   </si>
   <si>
-    <t>en réa/soins intensifs</t>
+    <t>Taux d'admission en réa</t>
+  </si>
+  <si>
+    <t>Taux d'admission en réa par unité de temps = 100*Nombre d'admis en réa / Nombre d'hospitalisés</t>
   </si>
   <si>
     <t>Jour de saisie des données,</t>
@@ -691,7 +694,7 @@
     <xdr:ext cx="5286375" cy="3038475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -719,7 +722,7 @@
     <xdr:ext cx="5734050" cy="2971800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30577,7 +30580,7 @@
       <c r="W4" s="18"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="19">
@@ -36786,7 +36789,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="17.25"/>
+    <col customWidth="1" min="1" max="1" width="17.25"/>
+    <col customWidth="1" min="2" max="2" width="22.25"/>
     <col customWidth="1" min="3" max="3" width="16.75"/>
     <col customWidth="1" min="4" max="22" width="11.5"/>
   </cols>
@@ -36801,7 +36805,9 @@
       <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
@@ -42963,22 +42969,22 @@
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="47">
         <v>25.0</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -43031,7 +43037,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="59">
         <v>44565.0</v>
@@ -43075,7 +43081,7 @@
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="63">
         <v>0.0</v>
